--- a/biology/Botanique/Parc_de_la_filature/Parc_de_la_filature.xlsx
+++ b/biology/Botanique/Parc_de_la_filature/Parc_de_la_filature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de la filature (finnois : Verkatehtaanpuisto) est un parc du quartier de Kyttälä à  Tampere en Finlande[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de la filature (finnois : Verkatehtaanpuisto) est un parc du quartier de Kyttälä à  Tampere en Finlande.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du parc de la filature fait référence a la filature de Tampere, qui se trouvait sur le site du Koskikeskus et de l'hôtel Ilves. 
-Aujourd'hui, seuls un bureau et une usine de teinture subsistent des anciens bâtiments de l'usine. Le reste du parc immobilier a été démoli dans les années 1970 et 1980[1],[4],[5].
-Le parc fait partie du paysage national de Tammerkoski que la direction des musées de Finlande a classé comme un site culturel construit d'intérêt national[6].
+Aujourd'hui, seuls un bureau et une usine de teinture subsistent des anciens bâtiments de l'usine. Le reste du parc immobilier a été démoli dans les années 1970 et 1980.
+Le parc fait partie du paysage national de Tammerkoski que la direction des musées de Finlande a classé comme un site culturel construit d'intérêt national.
 Le parc abrite la statue en bronze Le berger sculptée par Yrjö Liipola en 1947.
-La sculpture a d'abord été placée dans la partie centrale du Koskipuisto, d'où elle a été déplacée vers son emplacement actuel en 1965[7].
+La sculpture a d'abord été placée dans la partie centrale du Koskipuisto, d'où elle a été déplacée vers son emplacement actuel en 1965.
 </t>
         </is>
       </c>
